--- a/data/ParamAndClfSelection.xlsx
+++ b/data/ParamAndClfSelection.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:M91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,21 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>Appropriate (raw mean by sent)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Too bad (raw mean by sent)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Too good (raw mean by sent):</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>N distractors</t>
         </is>
       </c>
@@ -511,6 +526,15 @@
         <v>0.136</v>
       </c>
       <c r="J2" t="n">
+        <v>1.5921</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.4079</v>
+      </c>
+      <c r="M2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -545,6 +569,15 @@
         <v>0.125</v>
       </c>
       <c r="J3" t="n">
+        <v>1.4605</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.7368</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.3158</v>
+      </c>
+      <c r="M3" t="n">
         <v>2.5132</v>
       </c>
     </row>
@@ -579,6 +612,15 @@
         <v>0.1272</v>
       </c>
       <c r="J4" t="n">
+        <v>1.2763</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.8158</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.3158</v>
+      </c>
+      <c r="M4" t="n">
         <v>2.4079</v>
       </c>
     </row>
@@ -613,6 +655,15 @@
         <v>0.1272</v>
       </c>
       <c r="J5" t="n">
+        <v>1.3158</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.6711</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.2895</v>
+      </c>
+      <c r="M5" t="n">
         <v>2.2763</v>
       </c>
     </row>
@@ -647,6 +698,15 @@
         <v>0.1447</v>
       </c>
       <c r="J6" t="n">
+        <v>1.4605</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.8421</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.3684</v>
+      </c>
+      <c r="M6" t="n">
         <v>2.6711</v>
       </c>
     </row>
@@ -681,6 +741,15 @@
         <v>0.1283</v>
       </c>
       <c r="J7" t="n">
+        <v>1.9605</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.5263</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.5132</v>
+      </c>
+      <c r="M7" t="n">
         <v>4</v>
       </c>
     </row>
@@ -715,6 +784,15 @@
         <v>0.1118</v>
       </c>
       <c r="J8" t="n">
+        <v>1.7368</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.1053</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.3947</v>
+      </c>
+      <c r="M8" t="n">
         <v>3.2368</v>
       </c>
     </row>
@@ -749,6 +827,15 @@
         <v>0.1283</v>
       </c>
       <c r="J9" t="n">
+        <v>1.5263</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.2237</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.3947</v>
+      </c>
+      <c r="M9" t="n">
         <v>3.1447</v>
       </c>
     </row>
@@ -783,6 +870,15 @@
         <v>0.1228</v>
       </c>
       <c r="J10" t="n">
+        <v>1.5789</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.9474</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.3816</v>
+      </c>
+      <c r="M10" t="n">
         <v>2.9079</v>
       </c>
     </row>
@@ -817,6 +913,15 @@
         <v>0.1404</v>
       </c>
       <c r="J11" t="n">
+        <v>1.7763</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.1974</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.4737</v>
+      </c>
+      <c r="M11" t="n">
         <v>3.4474</v>
       </c>
     </row>
@@ -851,6 +956,15 @@
         <v>0.1237</v>
       </c>
       <c r="J12" t="n">
+        <v>2.2632</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.1184</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.6183999999999999</v>
+      </c>
+      <c r="M12" t="n">
         <v>5</v>
       </c>
     </row>
@@ -885,6 +999,15 @@
         <v>0.1068</v>
       </c>
       <c r="J13" t="n">
+        <v>1.9342</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.4605</v>
+      </c>
+      <c r="M13" t="n">
         <v>3.8947</v>
       </c>
     </row>
@@ -919,6 +1042,15 @@
         <v>0.1219</v>
       </c>
       <c r="J14" t="n">
+        <v>1.8026</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.6711</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.4868</v>
+      </c>
+      <c r="M14" t="n">
         <v>3.9605</v>
       </c>
     </row>
@@ -953,6 +1085,15 @@
         <v>0.1211</v>
       </c>
       <c r="J15" t="n">
+        <v>1.8026</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.3816</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.4737</v>
+      </c>
+      <c r="M15" t="n">
         <v>3.6579</v>
       </c>
     </row>
@@ -987,6 +1128,15 @@
         <v>0.1366</v>
       </c>
       <c r="J16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.6579</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.5789</v>
+      </c>
+      <c r="M16" t="n">
         <v>4.2368</v>
       </c>
     </row>
@@ -1021,6 +1171,15 @@
         <v>0.1228</v>
       </c>
       <c r="J17" t="n">
+        <v>2.5395</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.7237</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.7368</v>
+      </c>
+      <c r="M17" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1055,6 +1214,15 @@
         <v>0.1107</v>
       </c>
       <c r="J18" t="n">
+        <v>2.1184</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.8553</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.5526</v>
+      </c>
+      <c r="M18" t="n">
         <v>4.5263</v>
       </c>
     </row>
@@ -1089,6 +1257,15 @@
         <v>0.1257</v>
       </c>
       <c r="J19" t="n">
+        <v>2.0526</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.0263</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.5921</v>
+      </c>
+      <c r="M19" t="n">
         <v>4.6711</v>
       </c>
     </row>
@@ -1123,6 +1300,15 @@
         <v>0.1206</v>
       </c>
       <c r="J20" t="n">
+        <v>2</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.5921</v>
+      </c>
+      <c r="M20" t="n">
         <v>4.3421</v>
       </c>
     </row>
@@ -1157,6 +1343,15 @@
         <v>0.1364</v>
       </c>
       <c r="J21" t="n">
+        <v>2.2632</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.0395</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.6974</v>
+      </c>
+      <c r="M21" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1191,6 +1386,15 @@
         <v>0.1222</v>
       </c>
       <c r="J22" t="n">
+        <v>2.8816</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.2632</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.8552999999999999</v>
+      </c>
+      <c r="M22" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1225,6 +1429,15 @@
         <v>0.1077</v>
       </c>
       <c r="J23" t="n">
+        <v>2.3684</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.1711</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.6183999999999999</v>
+      </c>
+      <c r="M23" t="n">
         <v>5.1579</v>
       </c>
     </row>
@@ -1259,6 +1472,15 @@
         <v>0.127</v>
       </c>
       <c r="J24" t="n">
+        <v>2.3421</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.4079</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.6842</v>
+      </c>
+      <c r="M24" t="n">
         <v>5.4342</v>
       </c>
     </row>
@@ -1293,6 +1515,15 @@
         <v>0.1189</v>
       </c>
       <c r="J25" t="n">
+        <v>2.2105</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.1711</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.6711</v>
+      </c>
+      <c r="M25" t="n">
         <v>5.0526</v>
       </c>
     </row>
@@ -1327,6 +1558,15 @@
         <v>0.1303</v>
       </c>
       <c r="J26" t="n">
+        <v>2.6053</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.4868</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.7763</v>
+      </c>
+      <c r="M26" t="n">
         <v>5.8684</v>
       </c>
     </row>
@@ -1361,6 +1601,15 @@
         <v>0.1217</v>
       </c>
       <c r="J27" t="n">
+        <v>3.1711</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.8553</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.9737</v>
+      </c>
+      <c r="M27" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1395,6 +1644,15 @@
         <v>0.1078</v>
       </c>
       <c r="J28" t="n">
+        <v>2.6053</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.5789</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.6974</v>
+      </c>
+      <c r="M28" t="n">
         <v>5.8816</v>
       </c>
     </row>
@@ -1429,6 +1687,15 @@
         <v>0.1215</v>
       </c>
       <c r="J29" t="n">
+        <v>2.6053</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.8684</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M29" t="n">
         <v>6.2237</v>
       </c>
     </row>
@@ -1463,6 +1730,15 @@
         <v>0.1187</v>
       </c>
       <c r="J30" t="n">
+        <v>2.3816</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.5526</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.7632</v>
+      </c>
+      <c r="M30" t="n">
         <v>5.6974</v>
       </c>
     </row>
@@ -1497,6 +1773,15 @@
         <v>0.1219</v>
       </c>
       <c r="J31" t="n">
+        <v>2.8684</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.8947</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.8421</v>
+      </c>
+      <c r="M31" t="n">
         <v>6.6053</v>
       </c>
     </row>
@@ -1531,6 +1816,15 @@
         <v>0.1184</v>
       </c>
       <c r="J32" t="n">
+        <v>3.4211</v>
+      </c>
+      <c r="K32" t="n">
+        <v>4.5132</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.0658</v>
+      </c>
+      <c r="M32" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1565,6 +1859,15 @@
         <v>0.1059</v>
       </c>
       <c r="J33" t="n">
+        <v>2.7632</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3.0132</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.7632</v>
+      </c>
+      <c r="M33" t="n">
         <v>6.5395</v>
       </c>
     </row>
@@ -1599,6 +1902,15 @@
         <v>0.1191</v>
       </c>
       <c r="J34" t="n">
+        <v>2.7895</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3.3158</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.8158</v>
+      </c>
+      <c r="M34" t="n">
         <v>6.9211</v>
       </c>
     </row>
@@ -1633,6 +1945,15 @@
         <v>0.1153</v>
       </c>
       <c r="J35" t="n">
+        <v>2.5132</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.8289</v>
+      </c>
+      <c r="M35" t="n">
         <v>6.3421</v>
       </c>
     </row>
@@ -1667,6 +1988,15 @@
         <v>0.1179</v>
       </c>
       <c r="J36" t="n">
+        <v>3.0263</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3.3684</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.8947000000000001</v>
+      </c>
+      <c r="M36" t="n">
         <v>7.2895</v>
       </c>
     </row>
@@ -1701,6 +2031,15 @@
         <v>0.1158</v>
       </c>
       <c r="J37" t="n">
+        <v>3.6184</v>
+      </c>
+      <c r="K37" t="n">
+        <v>5.2237</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.1579</v>
+      </c>
+      <c r="M37" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1735,6 +2074,15 @@
         <v>0.1036</v>
       </c>
       <c r="J38" t="n">
+        <v>2.9211</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3.4605</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.8421</v>
+      </c>
+      <c r="M38" t="n">
         <v>7.2237</v>
       </c>
     </row>
@@ -1769,6 +2117,15 @@
         <v>0.1153</v>
       </c>
       <c r="J39" t="n">
+        <v>2.9605</v>
+      </c>
+      <c r="K39" t="n">
+        <v>3.7632</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.8683999999999999</v>
+      </c>
+      <c r="M39" t="n">
         <v>7.5921</v>
       </c>
     </row>
@@ -1803,6 +2160,15 @@
         <v>0.1124</v>
       </c>
       <c r="J40" t="n">
+        <v>2.6316</v>
+      </c>
+      <c r="K40" t="n">
+        <v>3.4737</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.8947000000000001</v>
+      </c>
+      <c r="M40" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1837,6 +2203,15 @@
         <v>0.1162</v>
       </c>
       <c r="J41" t="n">
+        <v>3.1711</v>
+      </c>
+      <c r="K41" t="n">
+        <v>3.8158</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.9737</v>
+      </c>
+      <c r="M41" t="n">
         <v>7.9605</v>
       </c>
     </row>
@@ -1871,6 +2246,15 @@
         <v>0.1148</v>
       </c>
       <c r="J42" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K42" t="n">
+        <v>5.9868</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.2632</v>
+      </c>
+      <c r="M42" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1905,6 +2289,15 @@
         <v>0.1061</v>
       </c>
       <c r="J43" t="n">
+        <v>3</v>
+      </c>
+      <c r="K43" t="n">
+        <v>3.9079</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.9342</v>
+      </c>
+      <c r="M43" t="n">
         <v>7.8421</v>
       </c>
     </row>
@@ -1939,6 +2332,15 @@
         <v>0.1083</v>
       </c>
       <c r="J44" t="n">
+        <v>3.0132</v>
+      </c>
+      <c r="K44" t="n">
+        <v>4.3026</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.9474</v>
+      </c>
+      <c r="M44" t="n">
         <v>8.263199999999999</v>
       </c>
     </row>
@@ -1973,6 +2375,15 @@
         <v>0.1119</v>
       </c>
       <c r="J45" t="n">
+        <v>2.7237</v>
+      </c>
+      <c r="K45" t="n">
+        <v>3.9737</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.9868</v>
+      </c>
+      <c r="M45" t="n">
         <v>7.6842</v>
       </c>
     </row>
@@ -2007,6 +2418,15 @@
         <v>0.1153</v>
       </c>
       <c r="J46" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K46" t="n">
+        <v>4.3421</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.0658</v>
+      </c>
+      <c r="M46" t="n">
         <v>8.6579</v>
       </c>
     </row>
@@ -2041,6 +2461,15 @@
         <v>0.1118</v>
       </c>
       <c r="J47" t="n">
+        <v>3.9474</v>
+      </c>
+      <c r="K47" t="n">
+        <v>6.7105</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.3421</v>
+      </c>
+      <c r="M47" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2075,6 +2504,15 @@
         <v>0.1036</v>
       </c>
       <c r="J48" t="n">
+        <v>3.0921</v>
+      </c>
+      <c r="K48" t="n">
+        <v>4.3947</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.9868</v>
+      </c>
+      <c r="M48" t="n">
         <v>8.473699999999999</v>
       </c>
     </row>
@@ -2109,6 +2547,15 @@
         <v>0.1062</v>
       </c>
       <c r="J49" t="n">
+        <v>3.1053</v>
+      </c>
+      <c r="K49" t="n">
+        <v>4.8289</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.0132</v>
+      </c>
+      <c r="M49" t="n">
         <v>8.9474</v>
       </c>
     </row>
@@ -2143,6 +2590,15 @@
         <v>0.1062</v>
       </c>
       <c r="J50" t="n">
+        <v>2.8026</v>
+      </c>
+      <c r="K50" t="n">
+        <v>4.4211</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.0395</v>
+      </c>
+      <c r="M50" t="n">
         <v>8.263199999999999</v>
       </c>
     </row>
@@ -2177,6 +2633,15 @@
         <v>0.1124</v>
       </c>
       <c r="J51" t="n">
+        <v>3.3553</v>
+      </c>
+      <c r="K51" t="n">
+        <v>4.8684</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.1316</v>
+      </c>
+      <c r="M51" t="n">
         <v>9.3553</v>
       </c>
     </row>
@@ -2211,6 +2676,15 @@
         <v>0.1103</v>
       </c>
       <c r="J52" t="n">
+        <v>4.1974</v>
+      </c>
+      <c r="K52" t="n">
+        <v>7.3684</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.4342</v>
+      </c>
+      <c r="M52" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2245,6 +2719,15 @@
         <v>0.1047</v>
       </c>
       <c r="J53" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K53" t="n">
+        <v>4.7763</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1.0658</v>
+      </c>
+      <c r="M53" t="n">
         <v>9.0921</v>
       </c>
     </row>
@@ -2279,6 +2762,15 @@
         <v>0.1056</v>
       </c>
       <c r="J54" t="n">
+        <v>3.3026</v>
+      </c>
+      <c r="K54" t="n">
+        <v>5.3158</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.0921</v>
+      </c>
+      <c r="M54" t="n">
         <v>9.7105</v>
       </c>
     </row>
@@ -2313,6 +2805,15 @@
         <v>0.1054</v>
       </c>
       <c r="J55" t="n">
+        <v>2.9868</v>
+      </c>
+      <c r="K55" t="n">
+        <v>4.8421</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.1184</v>
+      </c>
+      <c r="M55" t="n">
         <v>8.9474</v>
       </c>
     </row>
@@ -2347,6 +2848,15 @@
         <v>0.1122</v>
       </c>
       <c r="J56" t="n">
+        <v>3.5789</v>
+      </c>
+      <c r="K56" t="n">
+        <v>5.2632</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1.2237</v>
+      </c>
+      <c r="M56" t="n">
         <v>10.0658</v>
       </c>
     </row>
@@ -2381,6 +2891,15 @@
         <v>0.1081</v>
       </c>
       <c r="J57" t="n">
+        <v>4.4211</v>
+      </c>
+      <c r="K57" t="n">
+        <v>8.065799999999999</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1.5132</v>
+      </c>
+      <c r="M57" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2415,6 +2934,15 @@
         <v>0.1035</v>
       </c>
       <c r="J58" t="n">
+        <v>3.4079</v>
+      </c>
+      <c r="K58" t="n">
+        <v>5.2632</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.1316</v>
+      </c>
+      <c r="M58" t="n">
         <v>9.8026</v>
       </c>
     </row>
@@ -2449,6 +2977,15 @@
         <v>0.1035</v>
       </c>
       <c r="J59" t="n">
+        <v>3.4868</v>
+      </c>
+      <c r="K59" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1.1447</v>
+      </c>
+      <c r="M59" t="n">
         <v>10.3816</v>
       </c>
     </row>
@@ -2483,6 +3020,15 @@
         <v>0.1013</v>
       </c>
       <c r="J60" t="n">
+        <v>3.1842</v>
+      </c>
+      <c r="K60" t="n">
+        <v>5.2895</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1.1711</v>
+      </c>
+      <c r="M60" t="n">
         <v>9.6447</v>
       </c>
     </row>
@@ -2517,6 +3063,15 @@
         <v>0.1075</v>
       </c>
       <c r="J61" t="n">
+        <v>3.7763</v>
+      </c>
+      <c r="K61" t="n">
+        <v>5.7895</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1.2763</v>
+      </c>
+      <c r="M61" t="n">
         <v>10.8421</v>
       </c>
     </row>
@@ -2551,6 +3106,15 @@
         <v>0.1053</v>
       </c>
       <c r="J62" t="n">
+        <v>4.6053</v>
+      </c>
+      <c r="K62" t="n">
+        <v>8.815799999999999</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1.5789</v>
+      </c>
+      <c r="M62" t="n">
         <v>15</v>
       </c>
     </row>
@@ -2585,6 +3149,15 @@
         <v>0.1022</v>
       </c>
       <c r="J63" t="n">
+        <v>3.5132</v>
+      </c>
+      <c r="K63" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1.1974</v>
+      </c>
+      <c r="M63" t="n">
         <v>10.4605</v>
       </c>
     </row>
@@ -2619,6 +3192,15 @@
         <v>0.1021</v>
       </c>
       <c r="J64" t="n">
+        <v>3.6447</v>
+      </c>
+      <c r="K64" t="n">
+        <v>6.3026</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1.2105</v>
+      </c>
+      <c r="M64" t="n">
         <v>11.1579</v>
       </c>
     </row>
@@ -2653,6 +3235,15 @@
         <v>0.0988</v>
       </c>
       <c r="J65" t="n">
+        <v>3.2895</v>
+      </c>
+      <c r="K65" t="n">
+        <v>5.8158</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1.2237</v>
+      </c>
+      <c r="M65" t="n">
         <v>10.3289</v>
       </c>
     </row>
@@ -2687,6 +3278,15 @@
         <v>0.1044</v>
       </c>
       <c r="J66" t="n">
+        <v>3.9211</v>
+      </c>
+      <c r="K66" t="n">
+        <v>6.3289</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1.3421</v>
+      </c>
+      <c r="M66" t="n">
         <v>11.5921</v>
       </c>
     </row>
@@ -2721,6 +3321,15 @@
         <v>0.1053</v>
       </c>
       <c r="J67" t="n">
+        <v>4.8947</v>
+      </c>
+      <c r="K67" t="n">
+        <v>9.421099999999999</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1.6842</v>
+      </c>
+      <c r="M67" t="n">
         <v>16</v>
       </c>
     </row>
@@ -2755,6 +3364,15 @@
         <v>0.1012</v>
       </c>
       <c r="J68" t="n">
+        <v>3.7237</v>
+      </c>
+      <c r="K68" t="n">
+        <v>6.1842</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1.2632</v>
+      </c>
+      <c r="M68" t="n">
         <v>11.1711</v>
       </c>
     </row>
@@ -2789,6 +3407,15 @@
         <v>0.0994</v>
       </c>
       <c r="J69" t="n">
+        <v>3.8553</v>
+      </c>
+      <c r="K69" t="n">
+        <v>6.6974</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1.2368</v>
+      </c>
+      <c r="M69" t="n">
         <v>11.7895</v>
       </c>
     </row>
@@ -2823,6 +3450,15 @@
         <v>0.1036</v>
       </c>
       <c r="J70" t="n">
+        <v>3.5132</v>
+      </c>
+      <c r="K70" t="n">
+        <v>6.2368</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1.3158</v>
+      </c>
+      <c r="M70" t="n">
         <v>11.0658</v>
       </c>
     </row>
@@ -2857,6 +3493,15 @@
         <v>0.1067</v>
       </c>
       <c r="J71" t="n">
+        <v>4.1711</v>
+      </c>
+      <c r="K71" t="n">
+        <v>6.7895</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1.4342</v>
+      </c>
+      <c r="M71" t="n">
         <v>12.3947</v>
       </c>
     </row>
@@ -2891,6 +3536,15 @@
         <v>0.1037</v>
       </c>
       <c r="J72" t="n">
+        <v>5.0789</v>
+      </c>
+      <c r="K72" t="n">
+        <v>10.1579</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1.7632</v>
+      </c>
+      <c r="M72" t="n">
         <v>17</v>
       </c>
     </row>
@@ -2925,6 +3579,15 @@
         <v>0.1015</v>
       </c>
       <c r="J73" t="n">
+        <v>3.8684</v>
+      </c>
+      <c r="K73" t="n">
+        <v>6.6579</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1.3289</v>
+      </c>
+      <c r="M73" t="n">
         <v>11.8553</v>
       </c>
     </row>
@@ -2959,6 +3622,15 @@
         <v>0.0987</v>
       </c>
       <c r="J74" t="n">
+        <v>4.0132</v>
+      </c>
+      <c r="K74" t="n">
+        <v>7.1447</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1.3026</v>
+      </c>
+      <c r="M74" t="n">
         <v>12.4605</v>
       </c>
     </row>
@@ -2993,6 +3665,15 @@
         <v>0.1009</v>
       </c>
       <c r="J75" t="n">
+        <v>3.6579</v>
+      </c>
+      <c r="K75" t="n">
+        <v>6.8158</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1.3684</v>
+      </c>
+      <c r="M75" t="n">
         <v>11.8421</v>
       </c>
     </row>
@@ -3027,6 +3708,15 @@
         <v>0.1045</v>
       </c>
       <c r="J76" t="n">
+        <v>4.3026</v>
+      </c>
+      <c r="K76" t="n">
+        <v>7.3947</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M76" t="n">
         <v>13.1974</v>
       </c>
     </row>
@@ -3061,6 +3751,15 @@
         <v>0.1016</v>
       </c>
       <c r="J77" t="n">
+        <v>5.1711</v>
+      </c>
+      <c r="K77" t="n">
+        <v>11</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1.8289</v>
+      </c>
+      <c r="M77" t="n">
         <v>18</v>
       </c>
     </row>
@@ -3095,6 +3794,15 @@
         <v>0.0997</v>
       </c>
       <c r="J78" t="n">
+        <v>3.9079</v>
+      </c>
+      <c r="K78" t="n">
+        <v>7.2237</v>
+      </c>
+      <c r="L78" t="n">
+        <v>1.3816</v>
+      </c>
+      <c r="M78" t="n">
         <v>12.5132</v>
       </c>
     </row>
@@ -3129,6 +3837,15 @@
         <v>0.0965</v>
       </c>
       <c r="J79" t="n">
+        <v>4.0921</v>
+      </c>
+      <c r="K79" t="n">
+        <v>7.6842</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1.3421</v>
+      </c>
+      <c r="M79" t="n">
         <v>13.1184</v>
       </c>
     </row>
@@ -3163,6 +3880,15 @@
         <v>0.0979</v>
       </c>
       <c r="J80" t="n">
+        <v>3.6842</v>
+      </c>
+      <c r="K80" t="n">
+        <v>7.4737</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1.4211</v>
+      </c>
+      <c r="M80" t="n">
         <v>12.5789</v>
       </c>
     </row>
@@ -3197,6 +3923,15 @@
         <v>0.1023</v>
       </c>
       <c r="J81" t="n">
+        <v>4.3421</v>
+      </c>
+      <c r="K81" t="n">
+        <v>8.0921</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1.5658</v>
+      </c>
+      <c r="M81" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3231,6 +3966,15 @@
         <v>0.099</v>
       </c>
       <c r="J82" t="n">
+        <v>5.3158</v>
+      </c>
+      <c r="K82" t="n">
+        <v>11.8026</v>
+      </c>
+      <c r="L82" t="n">
+        <v>1.8816</v>
+      </c>
+      <c r="M82" t="n">
         <v>19</v>
       </c>
     </row>
@@ -3265,6 +4009,15 @@
         <v>0.0963</v>
       </c>
       <c r="J83" t="n">
+        <v>4</v>
+      </c>
+      <c r="K83" t="n">
+        <v>7.7632</v>
+      </c>
+      <c r="L83" t="n">
+        <v>1.4211</v>
+      </c>
+      <c r="M83" t="n">
         <v>13.1842</v>
       </c>
     </row>
@@ -3299,6 +4052,15 @@
         <v>0.0941</v>
       </c>
       <c r="J84" t="n">
+        <v>4.1447</v>
+      </c>
+      <c r="K84" t="n">
+        <v>8.263199999999999</v>
+      </c>
+      <c r="L84" t="n">
+        <v>1.3684</v>
+      </c>
+      <c r="M84" t="n">
         <v>13.7763</v>
       </c>
     </row>
@@ -3333,6 +4095,15 @@
         <v>0.0955</v>
       </c>
       <c r="J85" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K85" t="n">
+        <v>7.9868</v>
+      </c>
+      <c r="L85" t="n">
+        <v>1.4605</v>
+      </c>
+      <c r="M85" t="n">
         <v>13.1974</v>
       </c>
     </row>
@@ -3367,6 +4138,15 @@
         <v>0.1001</v>
       </c>
       <c r="J86" t="n">
+        <v>4.4211</v>
+      </c>
+      <c r="K86" t="n">
+        <v>8.6579</v>
+      </c>
+      <c r="L86" t="n">
+        <v>1.6053</v>
+      </c>
+      <c r="M86" t="n">
         <v>14.6842</v>
       </c>
     </row>
@@ -3401,6 +4181,15 @@
         <v>0.0961</v>
       </c>
       <c r="J87" t="n">
+        <v>5.4211</v>
+      </c>
+      <c r="K87" t="n">
+        <v>12.6579</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1.9211</v>
+      </c>
+      <c r="M87" t="n">
         <v>20</v>
       </c>
     </row>
@@ -3435,6 +4224,15 @@
         <v>0.09320000000000001</v>
       </c>
       <c r="J88" t="n">
+        <v>4.0526</v>
+      </c>
+      <c r="K88" t="n">
+        <v>8.328900000000001</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1.4342</v>
+      </c>
+      <c r="M88" t="n">
         <v>13.8158</v>
       </c>
     </row>
@@ -3469,6 +4267,15 @@
         <v>0.0926</v>
       </c>
       <c r="J89" t="n">
+        <v>4.2105</v>
+      </c>
+      <c r="K89" t="n">
+        <v>8.763199999999999</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1.4079</v>
+      </c>
+      <c r="M89" t="n">
         <v>14.3816</v>
       </c>
     </row>
@@ -3503,6 +4310,15 @@
         <v>0.0941</v>
       </c>
       <c r="J90" t="n">
+        <v>3.8158</v>
+      </c>
+      <c r="K90" t="n">
+        <v>8.513199999999999</v>
+      </c>
+      <c r="L90" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M90" t="n">
         <v>13.8289</v>
       </c>
     </row>
@@ -3537,6 +4353,15 @@
         <v>0.0979</v>
       </c>
       <c r="J91" t="n">
+        <v>4.4737</v>
+      </c>
+      <c r="K91" t="n">
+        <v>9.3026</v>
+      </c>
+      <c r="L91" t="n">
+        <v>1.6447</v>
+      </c>
+      <c r="M91" t="n">
         <v>15.4211</v>
       </c>
     </row>
